--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55216.93648382425</v>
+        <v>44171.79874724241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>10232196.15412446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>24507828.77835018</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4162598.505613174</v>
+        <v>3084369.513919875</v>
       </c>
     </row>
     <row r="11">
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9082,28 +9082,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>38.66169381481656</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -9489,7 +9489,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>57.81213424001893</v>
@@ -9556,22 +9556,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>101.5955875616828</v>
@@ -9641,22 +9641,22 @@
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,31 +9711,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9793,25 +9793,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10112,25 +10112,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10206,7 +10206,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10431,13 +10431,13 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
@@ -10516,7 +10516,7 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>96.22962838366004</v>
@@ -10589,19 +10589,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10671,13 +10671,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10902,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>65.92768427608706</v>
@@ -11060,25 +11060,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,25 +11142,25 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11230,10 +11230,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,25 +11376,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23437,28 +23437,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23516,31 +23516,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23674,28 +23674,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23841,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -23990,28 +23990,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24069,7 +24069,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24081,7 +24081,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24148,22 +24148,22 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -24233,22 +24233,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24303,31 +24303,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24385,25 +24385,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24464,31 +24464,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24549,19 +24549,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24704,25 +24704,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24798,7 +24798,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24938,28 +24938,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25023,13 +25023,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -25108,7 +25108,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -25181,19 +25181,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25263,13 +25263,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25412,31 +25412,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25494,19 +25494,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -25652,25 +25652,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25734,25 +25734,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25822,10 +25822,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25886,28 +25886,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25968,25 +25968,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26047,22 +26047,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354571.9211928852</v>
+        <v>327034.988873683</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354571.9211928852</v>
+        <v>176037.5330103356</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354571.9211928852</v>
+        <v>350725.1163306618</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354571.9211928852</v>
+        <v>182421.2921001057</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354571.9211928852</v>
+        <v>205898.2466772987</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354571.9211928852</v>
+        <v>183137.7883222761</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354571.9211928852</v>
+        <v>244051.9745316718</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354571.9211928852</v>
+        <v>232684.7273280749</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354571.9211928852</v>
+        <v>261743.4301939771</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354571.9211928852</v>
+        <v>184940.1232950478</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354571.9211928852</v>
+        <v>216820.7647279914</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354571.9211928852</v>
+        <v>155942.6026413706</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>96756.66497830176</v>
       </c>
       <c r="E2" t="n">
-        <v>102888.4933348772</v>
+        <v>95807.56788136812</v>
       </c>
       <c r="F2" t="n">
-        <v>102888.4933348772</v>
+        <v>56979.65065936451</v>
       </c>
       <c r="G2" t="n">
-        <v>102888.4933348772</v>
+        <v>101899.3149417341</v>
       </c>
       <c r="H2" t="n">
-        <v>102888.4933348772</v>
+        <v>58621.18871101968</v>
       </c>
       <c r="I2" t="n">
-        <v>102888.4933348772</v>
+        <v>64658.11988801222</v>
       </c>
       <c r="J2" t="n">
-        <v>102888.4933348772</v>
+        <v>58805.43059672064</v>
       </c>
       <c r="K2" t="n">
-        <v>102888.4933348772</v>
+        <v>74469.07847913666</v>
       </c>
       <c r="L2" t="n">
-        <v>102888.4933348772</v>
+        <v>71546.0720553546</v>
       </c>
       <c r="M2" t="n">
-        <v>102888.4933348772</v>
+        <v>79018.30993515802</v>
       </c>
       <c r="N2" t="n">
-        <v>102888.4933348772</v>
+        <v>59268.88816114764</v>
       </c>
       <c r="O2" t="n">
-        <v>102888.4933348772</v>
+        <v>67466.76738676173</v>
       </c>
       <c r="P2" t="n">
-        <v>102888.4933348772</v>
+        <v>51812.38285020207</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="C4" t="n">
-        <v>94937.81247666413</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="D4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
       <c r="E4" t="n">
-        <v>56260.6346805183</v>
+        <v>50257.57054973067</v>
       </c>
       <c r="F4" t="n">
-        <v>56260.6346805183</v>
+        <v>11429.65332772707</v>
       </c>
       <c r="G4" t="n">
-        <v>56260.6346805183</v>
+        <v>56349.31761009664</v>
       </c>
       <c r="H4" t="n">
-        <v>56260.6346805183</v>
+        <v>13071.19137938223</v>
       </c>
       <c r="I4" t="n">
-        <v>56260.6346805183</v>
+        <v>19108.12255637477</v>
       </c>
       <c r="J4" t="n">
-        <v>56260.6346805183</v>
+        <v>13255.43326508319</v>
       </c>
       <c r="K4" t="n">
-        <v>56260.6346805183</v>
+        <v>28919.08114749923</v>
       </c>
       <c r="L4" t="n">
-        <v>56260.6346805183</v>
+        <v>25996.07472371717</v>
       </c>
       <c r="M4" t="n">
-        <v>56260.6346805183</v>
+        <v>33468.31260352059</v>
       </c>
       <c r="N4" t="n">
-        <v>56260.6346805183</v>
+        <v>13718.89082951019</v>
       </c>
       <c r="O4" t="n">
-        <v>56260.6346805183</v>
+        <v>21916.77005512429</v>
       </c>
       <c r="P4" t="n">
-        <v>56260.6346805183</v>
+        <v>6262.385518564619</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31808.74749836238</v>
+        <v>-33627.59999999997</v>
       </c>
       <c r="C6" t="n">
-        <v>-31808.74749836236</v>
+        <v>-33627.59999999997</v>
       </c>
       <c r="D6" t="n">
-        <v>-31808.74749836238</v>
+        <v>-33627.59999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>-90083.75345064946</v>
+        <v>-91161.61477337086</v>
       </c>
       <c r="F6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662911</v>
       </c>
       <c r="G6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662911</v>
       </c>
       <c r="H6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662913</v>
       </c>
       <c r="I6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662913</v>
       </c>
       <c r="J6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662913</v>
       </c>
       <c r="K6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662911</v>
       </c>
       <c r="L6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662911</v>
       </c>
       <c r="M6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.3852266291</v>
       </c>
       <c r="N6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662913</v>
       </c>
       <c r="O6" t="n">
-        <v>43016.2465493506</v>
+        <v>41938.38522662911</v>
       </c>
       <c r="P6" t="n">
-        <v>43016.24654935058</v>
+        <v>41938.38522662913</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44171.79874724241</v>
+        <v>57898.15688466049</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10232196.15412446</v>
+        <v>10456577.88551109</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24507828.77835018</v>
+        <v>24732210.50973683</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3084369.513919875</v>
+        <v>2979694.134305789</v>
       </c>
     </row>
     <row r="11">
@@ -8772,16 +8774,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -9012,7 +9014,7 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>38.66169381481656</v>
@@ -9246,13 +9248,13 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>57.81213424001893</v>
@@ -9325,7 +9327,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>92.09541281912071</v>
@@ -9337,7 +9339,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -9574,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,19 +9804,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,19 +10196,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10355,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,16 +10515,16 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10607,7 +10609,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10744,7 +10746,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>90.4687457914608</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,19 +10986,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>93.17061249236157</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -23364,16 +23366,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23604,7 +23606,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -23838,13 +23840,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -23917,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -23929,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>61.14583096471014</v>
@@ -24014,7 +24016,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24069,7 +24071,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24166,10 +24168,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24227,10 +24229,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
@@ -24245,10 +24247,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24303,16 +24305,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>51.84373129681028</v>
@@ -24321,13 +24323,13 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24394,19 +24396,19 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24786,19 +24788,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24947,7 +24949,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
         <v>110.5750244233121</v>
@@ -24956,10 +24958,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25017,10 +25019,10 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
         <v>61.18167021676314</v>
@@ -25032,13 +25034,13 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25105,16 +25107,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>61.14583096471014</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25260,13 +25262,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
@@ -25336,7 +25338,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25491,7 +25493,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25503,16 +25505,16 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25576,19 +25578,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>61.14583096471014</v>
@@ -25649,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25667,7 +25669,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -25731,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
         <v>61.18167021676314</v>
@@ -25810,22 +25812,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25910,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25962,7 +25964,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26047,7 +26049,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327034.988873683</v>
+        <v>314358.8437207664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>176037.5330103356</v>
+        <v>172190.7281481123</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350725.1163306618</v>
+        <v>335250.0367186866</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182421.2921001057</v>
+        <v>173168.8353292762</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>205898.2466772987</v>
+        <v>214113.0999756922</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>244051.9745316718</v>
+        <v>254347.4536560592</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>232684.7273280749</v>
+        <v>218907.6574858609</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261743.4301939771</v>
+        <v>241219.9882795227</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184940.1232950478</v>
+        <v>143835.8129211356</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216820.7647279914</v>
+        <v>163843.3895748178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155942.6026413706</v>
+        <v>149997.7419296437</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>96756.66497830176</v>
       </c>
       <c r="E2" t="n">
-        <v>95807.56788136812</v>
+        <v>92547.98769918957</v>
       </c>
       <c r="F2" t="n">
-        <v>56979.65065936451</v>
+        <v>55990.47226622138</v>
       </c>
       <c r="G2" t="n">
-        <v>101899.3149417341</v>
+        <v>97920.00875579758</v>
       </c>
       <c r="H2" t="n">
-        <v>58621.18871101968</v>
+        <v>56241.98554137782</v>
       </c>
       <c r="I2" t="n">
-        <v>64658.11988801222</v>
+        <v>66770.51073617047</v>
       </c>
       <c r="J2" t="n">
         <v>58805.43059672064</v>
       </c>
       <c r="K2" t="n">
-        <v>74469.07847913666</v>
+        <v>77116.48739683628</v>
       </c>
       <c r="L2" t="n">
-        <v>71546.0720553546</v>
+        <v>68003.39695307102</v>
       </c>
       <c r="M2" t="n">
-        <v>79018.30993515802</v>
+        <v>73740.85344286976</v>
       </c>
       <c r="N2" t="n">
-        <v>59268.88816114764</v>
+        <v>48699.20835071306</v>
       </c>
       <c r="O2" t="n">
-        <v>67466.76738676173</v>
+        <v>53844.01377594562</v>
       </c>
       <c r="P2" t="n">
-        <v>51812.38285020207</v>
+        <v>50283.70438147232</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="C4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="D4" t="n">
-        <v>96756.66497830173</v>
+        <v>96756.66497830175</v>
       </c>
       <c r="E4" t="n">
-        <v>50257.57054973067</v>
+        <v>46997.99036755212</v>
       </c>
       <c r="F4" t="n">
-        <v>11429.65332772707</v>
+        <v>10440.47493458393</v>
       </c>
       <c r="G4" t="n">
-        <v>56349.31761009664</v>
+        <v>52370.01142416014</v>
       </c>
       <c r="H4" t="n">
-        <v>13071.19137938223</v>
+        <v>10691.98820974037</v>
       </c>
       <c r="I4" t="n">
-        <v>19108.12255637477</v>
+        <v>21220.51340453305</v>
       </c>
       <c r="J4" t="n">
         <v>13255.43326508319</v>
       </c>
       <c r="K4" t="n">
-        <v>28919.08114749923</v>
+        <v>31566.49006519886</v>
       </c>
       <c r="L4" t="n">
-        <v>25996.07472371717</v>
+        <v>22453.39962143359</v>
       </c>
       <c r="M4" t="n">
-        <v>33468.31260352059</v>
+        <v>28190.85611123234</v>
       </c>
       <c r="N4" t="n">
-        <v>13718.89082951019</v>
+        <v>3149.211019075615</v>
       </c>
       <c r="O4" t="n">
-        <v>21916.77005512429</v>
+        <v>8294.016444308174</v>
       </c>
       <c r="P4" t="n">
-        <v>6262.385518564619</v>
+        <v>4733.707049834873</v>
       </c>
     </row>
     <row r="5">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999997</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999997</v>
+        <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999997</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>-91161.61477337086</v>
+        <v>-91161.61477337092</v>
       </c>
       <c r="F6" t="n">
-        <v>41938.38522662911</v>
+        <v>41938.38522662912</v>
       </c>
       <c r="G6" t="n">
         <v>41938.38522662911</v>
@@ -26540,25 +26542,25 @@
         <v>41938.38522662913</v>
       </c>
       <c r="I6" t="n">
-        <v>41938.38522662913</v>
+        <v>41938.3852266291</v>
       </c>
       <c r="J6" t="n">
-        <v>41938.38522662913</v>
+        <v>41938.38522662912</v>
       </c>
       <c r="K6" t="n">
-        <v>41938.38522662911</v>
+        <v>41938.38522662909</v>
       </c>
       <c r="L6" t="n">
-        <v>41938.38522662911</v>
+        <v>41938.3852266291</v>
       </c>
       <c r="M6" t="n">
         <v>41938.3852266291</v>
       </c>
       <c r="N6" t="n">
-        <v>41938.38522662913</v>
+        <v>41938.38522662912</v>
       </c>
       <c r="O6" t="n">
-        <v>41938.38522662911</v>
+        <v>41938.38522662912</v>
       </c>
       <c r="P6" t="n">
         <v>41938.38522662913</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57898.15688466049</v>
+        <v>-67211.741912816</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10456577.88551109</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24732210.50973683</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2979694.134305789</v>
+        <v>4162598.505613174</v>
       </c>
     </row>
     <row r="11">
@@ -8774,16 +8774,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
         <v>38.66169381481656</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
         <v>57.81213424001893</v>
@@ -9327,7 +9327,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
         <v>92.09541281912071</v>
@@ -9339,7 +9339,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
         <v>57.81213424001893</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
@@ -9725,16 +9725,16 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
@@ -9816,7 +9816,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,19 +9959,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10114,19 +10114,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
@@ -10196,16 +10196,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
         <v>65.92768427608706</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
         <v>135.4597561231036</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10515,16 +10515,16 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10591,25 +10591,25 @@
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,16 +10670,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10746,7 +10746,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
         <v>90.4687457914608</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,19 +10986,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,28 +11141,28 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
         <v>101.5955875616828</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,19 +11460,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23366,16 +23366,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23439,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23518,31 +23518,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23606,7 +23606,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -23676,28 +23676,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23840,13 +23840,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -23919,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>61.14583096471014</v>
@@ -23992,31 +23992,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24083,7 +24083,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24150,28 +24150,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,25 +24229,25 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24317,16 +24317,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24387,13 +24387,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24466,31 +24466,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24551,19 +24551,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24706,19 +24706,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24788,16 +24788,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -24940,22 +24940,22 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -25019,28 +25019,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25107,16 +25107,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>61.14583096471014</v>
@@ -25183,25 +25183,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25262,16 +25262,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25414,31 +25414,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25493,28 +25493,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25578,19 +25578,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>61.14583096471014</v>
@@ -25651,28 +25651,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25733,28 +25733,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25812,19 +25812,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -25888,31 +25888,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25964,31 +25964,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26052,19 +26052,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>314358.8437207664</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>172190.7281481123</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>335250.0367186866</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>173168.8353292762</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>214113.0999756922</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>183137.7883222761</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>254347.4536560592</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>218907.6574858609</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>241219.9882795227</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>143835.8129211356</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163843.3895748178</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149997.7419296437</v>
+        <v>354571.9211928852</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>96756.66497830176</v>
       </c>
       <c r="E2" t="n">
-        <v>92547.98769918957</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="F2" t="n">
-        <v>55990.47226622138</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="G2" t="n">
-        <v>97920.00875579758</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="H2" t="n">
-        <v>56241.98554137782</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="I2" t="n">
-        <v>66770.51073617047</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="J2" t="n">
-        <v>58805.43059672064</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="K2" t="n">
-        <v>77116.48739683628</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="L2" t="n">
-        <v>68003.39695307102</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="M2" t="n">
-        <v>73740.85344286976</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="N2" t="n">
-        <v>48699.20835071306</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="O2" t="n">
-        <v>53844.01377594562</v>
+        <v>102888.4933348772</v>
       </c>
       <c r="P2" t="n">
-        <v>50283.70438147232</v>
+        <v>102888.4933348772</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>96756.66497830175</v>
       </c>
       <c r="E4" t="n">
-        <v>46997.99036755212</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>10440.47493458393</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="G4" t="n">
-        <v>52370.01142416014</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="H4" t="n">
-        <v>10691.98820974037</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="I4" t="n">
-        <v>21220.51340453305</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="J4" t="n">
-        <v>13255.43326508319</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="K4" t="n">
-        <v>31566.49006519886</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="L4" t="n">
-        <v>22453.39962143359</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="M4" t="n">
-        <v>28190.85611123234</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="N4" t="n">
-        <v>3149.211019075615</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="O4" t="n">
-        <v>8294.016444308174</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="P4" t="n">
-        <v>4733.707049834873</v>
+        <v>57338.49600323976</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="E6" t="n">
-        <v>-91161.61477337092</v>
+        <v>-105971.6316124848</v>
       </c>
       <c r="F6" t="n">
-        <v>41938.38522662912</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="G6" t="n">
-        <v>41938.38522662911</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="H6" t="n">
-        <v>41938.38522662913</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="I6" t="n">
-        <v>41938.3852266291</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="J6" t="n">
-        <v>41938.38522662912</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="K6" t="n">
-        <v>41938.38522662909</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="L6" t="n">
-        <v>41938.3852266291</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="M6" t="n">
-        <v>41938.3852266291</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="N6" t="n">
-        <v>41938.38522662912</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="O6" t="n">
-        <v>41938.38522662912</v>
+        <v>27128.36838751525</v>
       </c>
       <c r="P6" t="n">
-        <v>41938.38522662913</v>
+        <v>27128.36838751525</v>
       </c>
     </row>
   </sheetData>
